--- a/lib/report/benchmark_report/web14/exl/202006/jsliu__bank_test_&_city_(HF)(202006)_Loan_Portfolio_Analytics.xlsx
+++ b/lib/report/benchmark_report/web14/exl/202006/jsliu__bank_test_&_city_(HF)(202006)_Loan_Portfolio_Analytics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\THC\R0702\Web ReportTemplates\2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA2F2F00-6DFA-4250-9E54-16CE3C7A0B02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B2A66BF-7F1B-41A4-BCEF-462D122048B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" tabRatio="853" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="18000" windowHeight="9360" tabRatio="853" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mortgage Performance" sheetId="1" r:id="rId1"/>
@@ -207,7 +207,7 @@
     <t>Portfolio Name: Loans and lease financing receivables          Cycle: June, 2020           Evaluation Date: June 30, 2020</t>
   </si>
   <si>
-    <t>Printed on: 09/18/2020 2:00:12PM</t>
+    <t>Printed on: 11/12/2020 4:48:23AM</t>
   </si>
   <si>
     <t>Footnotes:_x000D_
@@ -871,16 +871,13 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -905,6 +902,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1051,7 +1051,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000000-8A70-4F95-B823-67DB87E54ADC}"/>
+                <c16:uniqueId val="{00000000-0C5D-4C96-BA78-F7B698A35FD8}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1065,7 +1065,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-8A70-4F95-B823-67DB87E54ADC}"/>
+                <c16:uniqueId val="{00000001-0C5D-4C96-BA78-F7B698A35FD8}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1079,7 +1079,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000002-8A70-4F95-B823-67DB87E54ADC}"/>
+                <c16:uniqueId val="{00000002-0C5D-4C96-BA78-F7B698A35FD8}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1093,7 +1093,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-8A70-4F95-B823-67DB87E54ADC}"/>
+                <c16:uniqueId val="{00000003-0C5D-4C96-BA78-F7B698A35FD8}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1131,7 +1131,7 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-8A70-4F95-B823-67DB87E54ADC}"/>
+                  <c16:uniqueId val="{00000002-0C5D-4C96-BA78-F7B698A35FD8}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1268,7 +1268,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-8A70-4F95-B823-67DB87E54ADC}"/>
+              <c16:uniqueId val="{00000004-0C5D-4C96-BA78-F7B698A35FD8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1322,7 +1322,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1371,7 +1371,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000000-E3ED-4457-AA58-9B96529770FA}"/>
+                <c16:uniqueId val="{00000000-6A8E-4291-ADD5-0F69BFAFB4C3}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1385,7 +1385,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-E3ED-4457-AA58-9B96529770FA}"/>
+                <c16:uniqueId val="{00000001-6A8E-4291-ADD5-0F69BFAFB4C3}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1399,7 +1399,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000002-E3ED-4457-AA58-9B96529770FA}"/>
+                <c16:uniqueId val="{00000002-6A8E-4291-ADD5-0F69BFAFB4C3}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1413,7 +1413,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-E3ED-4457-AA58-9B96529770FA}"/>
+                <c16:uniqueId val="{00000003-6A8E-4291-ADD5-0F69BFAFB4C3}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1479,7 +1479,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-E3ED-4457-AA58-9B96529770FA}"/>
+              <c16:uniqueId val="{00000004-6A8E-4291-ADD5-0F69BFAFB4C3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1533,7 +1533,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2363,36 +2363,36 @@
     <col min="32" max="32" width="10.42578125" style="8" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="9.28515625" style="8" customWidth="1"/>
     <col min="34" max="34" width="2.7109375" style="8" customWidth="1"/>
-    <col min="35" max="68" width="6.85546875" style="8" customWidth="1"/>
-    <col min="69" max="16384" width="6.85546875" style="8"/>
+    <col min="35" max="67" width="6.85546875" style="8" customWidth="1"/>
+    <col min="68" max="16384" width="6.85546875" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:33" ht="27" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:33" ht="27" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="2:33" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="63" t="s">
+      <c r="B3" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="63"/>
-      <c r="N3" s="63"/>
-      <c r="O3" s="63"/>
-      <c r="P3" s="63"/>
-      <c r="Q3" s="63"/>
-      <c r="R3" s="63"/>
-      <c r="S3" s="63"/>
-      <c r="T3" s="63"/>
-      <c r="U3" s="63"/>
-      <c r="V3" s="63"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="62"/>
       <c r="W3" s="9"/>
       <c r="X3" s="9"/>
       <c r="Y3" s="9"/>
@@ -2587,10 +2587,10 @@
       <c r="B9" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="66" t="s">
+      <c r="C9" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="67"/>
+      <c r="D9" s="66"/>
       <c r="E9" s="37" t="s">
         <v>9</v>
       </c>
@@ -2600,14 +2600,14 @@
       <c r="G9" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="64" t="s">
+      <c r="H9" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="65"/>
-      <c r="J9" s="65"/>
-      <c r="K9" s="65"/>
-      <c r="L9" s="65"/>
-      <c r="M9" s="65"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="64"/>
+      <c r="K9" s="64"/>
+      <c r="L9" s="64"/>
+      <c r="M9" s="64"/>
       <c r="N9" s="12"/>
       <c r="O9" s="12"/>
       <c r="P9" s="12"/>
@@ -2619,21 +2619,21 @@
       <c r="AG9" s="12"/>
     </row>
     <row r="10" spans="2:33" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C10" s="61">
+      <c r="C10" s="60">
         <v>100</v>
       </c>
-      <c r="D10" s="62"/>
+      <c r="D10" s="61"/>
       <c r="E10" s="38">
         <f>C10/100-U17+Q17</f>
-        <v>1.6345147292678908</v>
+        <v>1.6347129685324044</v>
       </c>
       <c r="F10" s="39">
         <f>(1-(C10/10000-U17/100)*AB17)*E17</f>
-        <v>109.64992430844811</v>
+        <v>109.64853611809902</v>
       </c>
       <c r="G10" s="40">
         <f>(1-(C10/10000-U17/100)*AB17)*F17</f>
-        <v>109.10342527766628</v>
+        <v>109.10206622825295</v>
       </c>
       <c r="N10" s="12"/>
       <c r="O10" s="12"/>
@@ -2667,19 +2667,19 @@
       <c r="N11" s="55"/>
       <c r="O11" s="55"/>
       <c r="P11" s="55"/>
-      <c r="Q11" s="58" t="s">
+      <c r="Q11" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="R11" s="58"/>
-      <c r="S11" s="58"/>
-      <c r="T11" s="58"/>
-      <c r="U11" s="58"/>
-      <c r="V11" s="58"/>
-      <c r="W11" s="59" t="s">
+      <c r="R11" s="59"/>
+      <c r="S11" s="59"/>
+      <c r="T11" s="59"/>
+      <c r="U11" s="59"/>
+      <c r="V11" s="59"/>
+      <c r="W11" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="X11" s="59"/>
-      <c r="Y11" s="59"/>
+      <c r="X11" s="57"/>
+      <c r="Y11" s="57"/>
       <c r="Z11" s="54" t="s">
         <v>18</v>
       </c>
@@ -2737,31 +2737,31 @@
       <c r="P12" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="Q12" s="58" t="s">
+      <c r="Q12" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="R12" s="58" t="s">
+      <c r="R12" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="S12" s="58" t="s">
+      <c r="S12" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="T12" s="58" t="s">
+      <c r="T12" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="U12" s="58" t="s">
+      <c r="U12" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="V12" s="58" t="s">
+      <c r="V12" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="W12" s="59" t="s">
+      <c r="W12" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="X12" s="59" t="s">
+      <c r="X12" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="Y12" s="59" t="s">
+      <c r="Y12" s="57" t="s">
         <v>39</v>
       </c>
       <c r="Z12" s="54" t="s">
@@ -2801,15 +2801,15 @@
       <c r="N13" s="55"/>
       <c r="O13" s="55"/>
       <c r="P13" s="55"/>
-      <c r="Q13" s="58"/>
-      <c r="R13" s="58"/>
-      <c r="S13" s="58"/>
-      <c r="T13" s="58"/>
-      <c r="U13" s="58"/>
-      <c r="V13" s="58"/>
-      <c r="W13" s="59"/>
-      <c r="X13" s="59"/>
-      <c r="Y13" s="59"/>
+      <c r="Q13" s="59"/>
+      <c r="R13" s="59"/>
+      <c r="S13" s="59"/>
+      <c r="T13" s="59"/>
+      <c r="U13" s="59"/>
+      <c r="V13" s="59"/>
+      <c r="W13" s="57"/>
+      <c r="X13" s="57"/>
+      <c r="Y13" s="57"/>
       <c r="Z13" s="54"/>
       <c r="AA13" s="54"/>
       <c r="AB13" s="54"/>
@@ -2828,21 +2828,21 @@
       <c r="AG13" s="52"/>
     </row>
     <row r="14" spans="2:33" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="60"/>
-      <c r="C14" s="60"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="60"/>
-      <c r="L14" s="60"/>
-      <c r="M14" s="60"/>
-      <c r="N14" s="60"/>
-      <c r="O14" s="60"/>
-      <c r="P14" s="60"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="58"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="58"/>
+      <c r="L14" s="58"/>
+      <c r="M14" s="58"/>
+      <c r="N14" s="58"/>
+      <c r="O14" s="58"/>
+      <c r="P14" s="58"/>
       <c r="Q14" s="56" t="s">
         <v>48</v>
       </c>
@@ -2859,12 +2859,12 @@
         <v>52</v>
       </c>
       <c r="V14" s="56"/>
-      <c r="W14" s="68"/>
-      <c r="X14" s="68"/>
-      <c r="Y14" s="68"/>
-      <c r="Z14" s="57"/>
-      <c r="AA14" s="57"/>
-      <c r="AB14" s="57"/>
+      <c r="W14" s="67"/>
+      <c r="X14" s="67"/>
+      <c r="Y14" s="67"/>
+      <c r="Z14" s="68"/>
+      <c r="AA14" s="68"/>
+      <c r="AB14" s="68"/>
       <c r="AC14" s="51"/>
       <c r="AD14" s="51"/>
       <c r="AE14" s="51"/>
@@ -2872,33 +2872,33 @@
       <c r="AG14" s="51"/>
     </row>
     <row r="15" spans="2:33" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="60"/>
-      <c r="C15" s="60"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="60"/>
-      <c r="H15" s="60"/>
-      <c r="I15" s="60"/>
-      <c r="J15" s="60"/>
-      <c r="K15" s="60"/>
-      <c r="L15" s="60"/>
-      <c r="M15" s="60"/>
-      <c r="N15" s="60"/>
-      <c r="O15" s="60"/>
-      <c r="P15" s="60"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="58"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="58"/>
+      <c r="L15" s="58"/>
+      <c r="M15" s="58"/>
+      <c r="N15" s="58"/>
+      <c r="O15" s="58"/>
+      <c r="P15" s="58"/>
       <c r="Q15" s="56"/>
       <c r="R15" s="56"/>
       <c r="S15" s="56"/>
       <c r="T15" s="56"/>
       <c r="U15" s="56"/>
       <c r="V15" s="56"/>
-      <c r="W15" s="68"/>
-      <c r="X15" s="68"/>
-      <c r="Y15" s="68"/>
-      <c r="Z15" s="57"/>
-      <c r="AA15" s="57"/>
-      <c r="AB15" s="57"/>
+      <c r="W15" s="67"/>
+      <c r="X15" s="67"/>
+      <c r="Y15" s="67"/>
+      <c r="Z15" s="68"/>
+      <c r="AA15" s="68"/>
+      <c r="AB15" s="68"/>
       <c r="AC15" s="51"/>
       <c r="AD15" s="51"/>
       <c r="AE15" s="51"/>
@@ -2955,23 +2955,23 @@
       </c>
       <c r="E17" s="16">
         <f>IF(SUM(DATATEMP!H101:H113) = 0,"",SUMPRODUCT(DATATEMP!E101:E113,DATATEMP!H101:H113)/SUM(DATATEMP!H101:H113))</f>
-        <v>107.40206709578119</v>
+        <v>107.40026654894285</v>
       </c>
       <c r="F17" s="16">
         <f>IF(SUM(DATATEMP!H101:H113) = 0,"",SUMPRODUCT(DATATEMP!F101:F113,DATATEMP!H101:H113)/SUM(DATATEMP!H101:H113))</f>
-        <v>106.86677146341304</v>
+        <v>106.86500165705935</v>
       </c>
       <c r="G17" s="17">
         <f>SUM(DATATEMP!G101:G113)</f>
-        <v>26242.204400555715</v>
+        <v>26241.769806907516</v>
       </c>
       <c r="H17" s="17">
         <f>SUM(DATATEMP!H101:H113)</f>
-        <v>24556.000000000007</v>
+        <v>24556.000000000018</v>
       </c>
       <c r="I17" s="18">
         <f>IF(SUM(DATATEMP!H101:H113) = 0,"",SUMPRODUCT(DATATEMP!I101:I113,DATATEMP!H101:H113)/SUM(DATATEMP!H101:H113))</f>
-        <v>6.8199376557051821</v>
+        <v>6.8199376557051696</v>
       </c>
       <c r="J17" s="19"/>
       <c r="K17" s="19"/>
@@ -2985,7 +2985,7 @@
       </c>
       <c r="N17" s="17">
         <f>IF(SUM(DATATEMP!H101:H113) = 0,"",SUMPRODUCT(DATATEMP!N101:N113,DATATEMP!H101:H113)/SUM(DATATEMP!H101:H113))</f>
-        <v>152.88020408784439</v>
+        <v>152.88020408784436</v>
       </c>
       <c r="O17" s="17">
         <f>IF(SUM(DATATEMP!H101:H113) = 0,"",SUMPRODUCT(DATATEMP!O101:O113,DATATEMP!H101:H113)/SUM(DATATEMP!H101:H113))</f>
@@ -2997,71 +2997,71 @@
       </c>
       <c r="Q17" s="21">
         <f>IF(SUM(DATATEMP!H101:H113) = 0,"",SUMPRODUCT(DATATEMP!Q101:Q113,DATATEMP!H101:H113)/SUM(DATATEMP!H101:H113))</f>
-        <v>2.4955661980078938</v>
+        <v>2.4960015931871387</v>
       </c>
       <c r="R17" s="21">
         <f>IF(SUM(DATATEMP!H101:H113) = 0,"",SUMPRODUCT(DATATEMP!R101:R113,DATATEMP!H101:H113)/SUM(DATATEMP!H101:H113))</f>
-        <v>0.27770404912008517</v>
+        <v>0.27766745703421841</v>
       </c>
       <c r="S17" s="21">
         <f>IF(SUM(DATATEMP!H101:H113) = 0,"",SUMPRODUCT(DATATEMP!S101:S113,DATATEMP!H101:H113)/SUM(DATATEMP!H101:H113))</f>
-        <v>-1.0281229305514838E-2</v>
+        <v>-1.026297409724688E-2</v>
       </c>
       <c r="T17" s="21">
         <f>IF(SUM(DATATEMP!H101:H113) = 0,"",SUMPRODUCT(DATATEMP!T101:T113,DATATEMP!H101:H113)/SUM(DATATEMP!H101:H113))</f>
-        <v>0.36709190945332076</v>
+        <v>0.36730848559543244</v>
       </c>
       <c r="U17" s="21">
         <f>IF(SUM(DATATEMP!H101:H113) = 0,"",SUMPRODUCT(DATATEMP!U101:U113,DATATEMP!H101:H113)/SUM(DATATEMP!H101:H113))</f>
-        <v>1.861051468740003</v>
+        <v>1.8612886246547342</v>
       </c>
       <c r="V17" s="21">
         <f>IF(SUM(DATATEMP!H101:H113) = 0,"",SUMPRODUCT(DATATEMP!V101:V113,DATATEMP!H101:H113)/SUM(DATATEMP!H101:H113))</f>
-        <v>1.9133397289390439</v>
+        <v>1.9135701391749791</v>
       </c>
       <c r="W17" s="16">
         <f>IF(SUM(DATATEMP!H101:H113) = 0,"",SUMPRODUCT(DATATEMP!W101:W113,DATATEMP!H101:H113)/SUM(DATATEMP!H101:H113))</f>
-        <v>2.7092287147235372</v>
+        <v>2.7090557704032774</v>
       </c>
       <c r="X17" s="16">
         <f>IF(SUM(DATATEMP!H101:H113) = 0,"",SUMPRODUCT(DATATEMP!X101:X113,DATATEMP!H101:H113)/SUM(DATATEMP!H101:H113))</f>
-        <v>1.3830322579225602</v>
+        <v>1.3826462036115919</v>
       </c>
       <c r="Y17" s="16">
         <f>IF(SUM(DATATEMP!H101:H113) = 0,"",SUMPRODUCT(DATATEMP!Y101:Y113,DATATEMP!H101:H113)/SUM(DATATEMP!H101:H113))</f>
-        <v>-0.23734328440793598</v>
+        <v>-0.23734614568255205</v>
       </c>
       <c r="Z17" s="22">
         <f>IF(SUM(DATATEMP!H101:H113) = 0,"",SUMPRODUCT(DATATEMP!Z101:Z113,DATATEMP!H101:H113)/SUM(DATATEMP!H101:H113))</f>
-        <v>2.0747476090161299E-2</v>
+        <v>2.0736142578127364E-2</v>
       </c>
       <c r="AA17" s="16">
         <f>IF(SUM(DATATEMP!H101:H113) = 0,"",SUMPRODUCT(DATATEMP!AA101:AA113,DATATEMP!H101:H113)/SUM(DATATEMP!H101:H113))</f>
-        <v>0.69016437786584117</v>
+        <v>0.69008791731014107</v>
       </c>
       <c r="AB17" s="16">
         <f>IF(SUM(DATATEMP!H101:H113) = 0,"",SUMPRODUCT(DATATEMP!AB101:AB113,DATATEMP!H101:H113)/SUM(DATATEMP!H101:H113))</f>
-        <v>2.4306754176746397</v>
+        <v>2.4304926477050999</v>
       </c>
       <c r="AC17" s="16">
         <f>IF(SUM(DATATEMP!H101:H113) = 0,"",SUMPRODUCT(DATATEMP!AC101:AC113,DATATEMP!H101:H113)/SUM(DATATEMP!H101:H113))</f>
-        <v>19.803909049519334</v>
+        <v>19.803893789934666</v>
       </c>
       <c r="AD17" s="16">
         <f>IF(SUM(DATATEMP!H101:H113) = 0,"",SUMPRODUCT(DATATEMP!AD101:AD113,DATATEMP!H101:H113)/SUM(DATATEMP!H101:H113))</f>
-        <v>15.15106676866108</v>
+        <v>15.150947967929246</v>
       </c>
       <c r="AE17" s="16">
         <f>IF(SUM(DATATEMP!H101:H113) = 0,"",SUMPRODUCT(DATATEMP!AE101:AE113,DATATEMP!H101:H113)/SUM(DATATEMP!H101:H113))</f>
-        <v>0.34506933633930875</v>
+        <v>0.34525512722685786</v>
       </c>
       <c r="AF17" s="16">
         <f>IF(SUM(DATATEMP!H101:H113) = 0,"",SUMPRODUCT(DATATEMP!AF101:AF113,DATATEMP!H101:H113)/SUM(DATATEMP!H101:H113))</f>
-        <v>0.40244676271634139</v>
+        <v>0.40268702632790421</v>
       </c>
       <c r="AG17" s="17">
         <f>SUM(DATATEMP!AG101:AG113)</f>
-        <v>215.67738871565888</v>
+        <v>215.85013449312291</v>
       </c>
     </row>
     <row r="18" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3144,16 +3144,16 @@
       <c r="C20" s="25"/>
       <c r="D20" s="25"/>
       <c r="E20" s="23">
-        <v>106.345359890682</v>
+        <v>106.345359890683</v>
       </c>
       <c r="F20" s="23">
-        <v>105.92764159773128</v>
+        <v>105.92764159773084</v>
       </c>
       <c r="G20" s="26">
         <v>246.81140492271601</v>
       </c>
       <c r="H20" s="26">
-        <v>233.00000000000202</v>
+        <v>233.00000000000298</v>
       </c>
       <c r="I20" s="27">
         <v>6.6084691347373496</v>
@@ -3180,7 +3180,7 @@
         <v>0.20487353551639617</v>
       </c>
       <c r="S20" s="30">
-        <v>-4.81155115899069E-7</v>
+        <v>-4.8115511589904995E-7</v>
       </c>
       <c r="T20" s="30">
         <v>0.47985037419788601</v>
@@ -3195,10 +3195,10 @@
         <v>2.33465772038375</v>
       </c>
       <c r="X20" s="23">
-        <v>1.5435635173333879</v>
+        <v>1.5435635173333304</v>
       </c>
       <c r="Y20" s="23">
-        <v>4.6550828287483983E-2</v>
+        <v>4.6550828205723524E-2</v>
       </c>
       <c r="Z20" s="31">
         <v>0</v>
@@ -3305,19 +3305,19 @@
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
       <c r="E23" s="23">
-        <v>107.474817457303</v>
+        <v>107.47481745730299</v>
       </c>
       <c r="F23" s="23">
-        <v>106.73643296828698</v>
+        <v>106.73643296828681</v>
       </c>
       <c r="G23" s="26">
         <v>695.92154295322996</v>
       </c>
       <c r="H23" s="26">
-        <v>651.99999999999898</v>
+        <v>652</v>
       </c>
       <c r="I23" s="27">
-        <v>6.6105328078421204</v>
+        <v>6.6105328078421195</v>
       </c>
       <c r="J23" s="28"/>
       <c r="K23" s="28"/>
@@ -3335,7 +3335,7 @@
         <v>75</v>
       </c>
       <c r="Q23" s="30">
-        <v>2.3105720404628061</v>
+        <v>2.310572040462807</v>
       </c>
       <c r="R23" s="30">
         <v>0.35678659220508502</v>
@@ -3344,7 +3344,7 @@
         <v>2.3978010905160699E-5</v>
       </c>
       <c r="T23" s="30">
-        <v>0.24346513580700602</v>
+        <v>0.24346513580700702</v>
       </c>
       <c r="U23" s="30">
         <v>1.7102963344398099</v>
@@ -3356,19 +3356,19 @@
         <v>4.1227831429009898</v>
       </c>
       <c r="X23" s="23">
-        <v>1.748558636161176</v>
+        <v>1.7485586361605225</v>
       </c>
       <c r="Y23" s="23">
-        <v>7.7082950332167069E-2</v>
+        <v>7.7082950319098134E-2</v>
       </c>
       <c r="Z23" s="31">
         <v>0</v>
       </c>
       <c r="AA23" s="23">
-        <v>0.78708849764648092</v>
+        <v>0.78708849764648192</v>
       </c>
       <c r="AB23" s="23">
-        <v>3.5256566753917471</v>
+        <v>3.5256566753924821</v>
       </c>
       <c r="AC23" s="23">
         <v>0</v>
@@ -3627,13 +3627,13 @@
       <c r="C29" s="25"/>
       <c r="D29" s="25"/>
       <c r="E29" s="23">
-        <v>107.055249398245</v>
+        <v>107.05122809509201</v>
       </c>
       <c r="F29" s="23">
-        <v>106.49251519703684</v>
+        <v>106.48856254903137</v>
       </c>
       <c r="G29" s="26">
-        <v>11708.8520459142</v>
+        <v>11708.417452266</v>
       </c>
       <c r="H29" s="26">
         <v>10995</v>
@@ -3657,55 +3657,55 @@
         <v>75</v>
       </c>
       <c r="Q29" s="30">
-        <v>2.1507833873331781</v>
+        <v>2.1517557896998478</v>
       </c>
       <c r="R29" s="30">
-        <v>0.31667320973714741</v>
+        <v>0.31659148574801582</v>
       </c>
       <c r="S29" s="30">
-        <v>-2.29875874673574E-2</v>
+        <v>-2.2946816672066096E-2</v>
       </c>
       <c r="T29" s="30">
-        <v>0.19286882833305799</v>
+        <v>0.19335252489928798</v>
       </c>
       <c r="U29" s="30">
-        <v>1.66422893673033</v>
+        <v>1.66475859572461</v>
       </c>
       <c r="V29" s="30">
-        <v>1.76149279475737</v>
+        <v>1.7620073880955802</v>
       </c>
       <c r="W29" s="23">
-        <v>2.5776699573115098</v>
+        <v>2.5772837071315799</v>
       </c>
       <c r="X29" s="23">
-        <v>0.69873759945197511</v>
+        <v>0.69787539393452847</v>
       </c>
       <c r="Y29" s="23">
-        <v>-0.63612867502235138</v>
+        <v>-0.63613506533833108</v>
       </c>
       <c r="Z29" s="31">
-        <v>3.6855972130796402E-2</v>
+        <v>3.6830660105193397E-2</v>
       </c>
       <c r="AA29" s="23">
-        <v>0.67059436994491095</v>
+        <v>0.67042360456012096</v>
       </c>
       <c r="AB29" s="23">
-        <v>2.3378283326205285</v>
+        <v>2.3374201380437816</v>
       </c>
       <c r="AC29" s="23">
-        <v>38.605555766498803</v>
+        <v>38.605521686065799</v>
       </c>
       <c r="AD29" s="23">
-        <v>28.291022434467099</v>
+        <v>28.290757107430199</v>
       </c>
       <c r="AE29" s="23">
-        <v>0.137577893836344</v>
+        <v>0.13799283526741801</v>
       </c>
       <c r="AF29" s="23">
-        <v>0.25585304683656601</v>
+        <v>0.25638964649509599</v>
       </c>
       <c r="AG29" s="26">
-        <v>62.069840010755797</v>
+        <v>62.242585788219806</v>
       </c>
     </row>
     <row r="30" spans="1:33" s="41" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3752,7 +3752,7 @@
         <v>0.20277254234910982</v>
       </c>
       <c r="S30" s="30">
-        <v>-6.0982073998885305E-6</v>
+        <v>-6.0982073998884806E-6</v>
       </c>
       <c r="T30" s="30">
         <v>0.55180956696862293</v>
@@ -3788,7 +3788,7 @@
         <v>24.997042921241199</v>
       </c>
       <c r="AE30" s="23">
-        <v>0.66205045589312295</v>
+        <v>0.66205045589312395</v>
       </c>
       <c r="AF30" s="23">
         <v>0.55615907393023301</v>
@@ -3877,7 +3877,7 @@
       <c r="C33" s="25"/>
       <c r="D33" s="25"/>
       <c r="E33" s="23">
-        <v>107.124781843131</v>
+        <v>107.124781843132</v>
       </c>
       <c r="F33" s="23">
         <v>106.40331054534231</v>
@@ -3937,7 +3937,7 @@
         <v>0</v>
       </c>
       <c r="AA33" s="23">
-        <v>0.76853517451229703</v>
+        <v>0.76853517451229603</v>
       </c>
       <c r="AB33" s="23">
         <v>3.4525717772218298</v>
@@ -3996,10 +3996,10 @@
         <v>75</v>
       </c>
       <c r="Q34" s="30">
-        <v>2.3087264225230042</v>
+        <v>2.308726422522994</v>
       </c>
       <c r="R34" s="30">
-        <v>0.3535912037569523</v>
+        <v>0.35359120375694225</v>
       </c>
       <c r="S34" s="30">
         <v>1.2509512337752401E-5</v>
@@ -4017,19 +4017,19 @@
         <v>4.0444647756341796</v>
       </c>
       <c r="X34" s="23">
-        <v>1.6699100839874561</v>
+        <v>1.6699100839879917</v>
       </c>
       <c r="Y34" s="23">
-        <v>7.3883118527900707E-2</v>
+        <v>7.3883118538612E-2</v>
       </c>
       <c r="Z34" s="31">
         <v>0</v>
       </c>
       <c r="AA34" s="23">
-        <v>0.76853517451232101</v>
+        <v>0.76853517451232001</v>
       </c>
       <c r="AB34" s="23">
-        <v>3.4525717772215918</v>
+        <v>3.4525717772209892</v>
       </c>
       <c r="AC34" s="23">
         <v>0</v>
@@ -4038,10 +4038,10 @@
         <v>0</v>
       </c>
       <c r="AE34" s="23">
-        <v>0.23446355465121402</v>
+        <v>0.23446355465121502</v>
       </c>
       <c r="AF34" s="23">
-        <v>0.23446355465121402</v>
+        <v>0.23446355465121502</v>
       </c>
       <c r="AG34" s="26">
         <v>7.1584542184519</v>
@@ -4288,19 +4288,19 @@
       <c r="C40" s="25"/>
       <c r="D40" s="25"/>
       <c r="E40" s="23">
-        <v>108.92903104905798</v>
+        <v>108.929031049058</v>
       </c>
       <c r="F40" s="23">
-        <v>108.37533117715773</v>
+        <v>108.37533117715743</v>
       </c>
       <c r="G40" s="26">
         <v>3826.7329438654397</v>
       </c>
       <c r="H40" s="26">
-        <v>3531</v>
+        <v>3531.00000000001</v>
       </c>
       <c r="I40" s="27">
-        <v>6.0582431140634601</v>
+        <v>6.0582431140634698</v>
       </c>
       <c r="J40" s="28"/>
       <c r="K40" s="28"/>
@@ -4324,7 +4324,7 @@
         <v>0.23867909449861141</v>
       </c>
       <c r="S40" s="30">
-        <v>2.9750311648513699E-5</v>
+        <v>2.97503116485138E-5</v>
       </c>
       <c r="T40" s="30">
         <v>0.33151786087898599</v>
@@ -4345,25 +4345,25 @@
         <v>0.11137757158967962</v>
       </c>
       <c r="Z40" s="31">
-        <v>2.1966598131652602E-5</v>
+        <v>2.19665981316525E-5</v>
       </c>
       <c r="AA40" s="23">
         <v>0.67582314552175304</v>
       </c>
       <c r="AB40" s="23">
-        <v>2.7128200079749081</v>
+        <v>2.712820007976215</v>
       </c>
       <c r="AC40" s="23">
-        <v>0.93122069052959489</v>
+        <v>0.93122069052959411</v>
       </c>
       <c r="AD40" s="23">
-        <v>0.69240951015576302</v>
+        <v>0.69240951015576502</v>
       </c>
       <c r="AE40" s="23">
-        <v>0.33825375247805106</v>
+        <v>0.33825375247805101</v>
       </c>
       <c r="AF40" s="23">
-        <v>0.33825375247805106</v>
+        <v>0.33825375247805101</v>
       </c>
       <c r="AG40" s="26">
         <v>33.915880371960704</v>
@@ -4461,7 +4461,7 @@
         <v>2556</v>
       </c>
       <c r="I43" s="27">
-        <v>12.406084269666801</v>
+        <v>12.4060842696667</v>
       </c>
       <c r="J43" s="28"/>
       <c r="K43" s="28"/>
@@ -4485,7 +4485,7 @@
         <v>0.19549273433423539</v>
       </c>
       <c r="S43" s="30">
-        <v>-2.02951954954414E-5</v>
+        <v>-2.0295195495441302E-5</v>
       </c>
       <c r="T43" s="30">
         <v>0.62714525162430301</v>
@@ -4500,19 +4500,19 @@
         <v>1.64322152297091</v>
       </c>
       <c r="X43" s="23">
-        <v>1.511038936319506</v>
+        <v>1.5110389363211443</v>
       </c>
       <c r="Y43" s="23">
-        <v>5.0675442773799484E-2</v>
+        <v>5.0675442806563789E-2</v>
       </c>
       <c r="Z43" s="31">
         <v>3.4565789002913801E-2</v>
       </c>
       <c r="AA43" s="23">
-        <v>0.69838320838263301</v>
+        <v>0.69838320838263201</v>
       </c>
       <c r="AB43" s="23">
-        <v>1.511038936319506</v>
+        <v>1.5110389363211443</v>
       </c>
       <c r="AC43" s="23">
         <v>17.999028807286898</v>
@@ -4521,7 +4521,7 @@
         <v>17.998013521862401</v>
       </c>
       <c r="AE43" s="23">
-        <v>0.63221992819002704</v>
+        <v>0.63221992819002593</v>
       </c>
       <c r="AF43" s="23">
         <v>0.67565684668711812</v>
@@ -4550,7 +4550,7 @@
         <v>1202</v>
       </c>
       <c r="I44" s="27">
-        <v>12.952397041976701</v>
+        <v>12.952397041976599</v>
       </c>
       <c r="J44" s="28"/>
       <c r="K44" s="28"/>
@@ -4586,7 +4586,7 @@
         <v>3.5933715822400498</v>
       </c>
       <c r="W44" s="23">
-        <v>1.5630414487031601</v>
+        <v>1.5630414487031701</v>
       </c>
       <c r="X44" s="23">
         <v>1.3446730638040743</v>
@@ -4699,7 +4699,7 @@
       <c r="C47" s="25"/>
       <c r="D47" s="25"/>
       <c r="E47" s="23">
-        <v>101.171652730285</v>
+        <v>101.171652730286</v>
       </c>
       <c r="F47" s="23">
         <v>100.60860759523815</v>
@@ -4729,25 +4729,25 @@
         <v>75</v>
       </c>
       <c r="Q47" s="30">
-        <v>2.4224756786283188</v>
+        <v>2.4224756786283179</v>
       </c>
       <c r="R47" s="30">
-        <v>0.23714033926575753</v>
+        <v>0.23714033926574749</v>
       </c>
       <c r="S47" s="30">
         <v>4.3222758182186698E-5</v>
       </c>
       <c r="T47" s="30">
-        <v>0.35043166497430905</v>
+        <v>0.350431664974308</v>
       </c>
       <c r="U47" s="30">
-        <v>1.8348604516300702</v>
+        <v>1.8348604516300802</v>
       </c>
       <c r="V47" s="30">
         <v>1.8354711181921599</v>
       </c>
       <c r="W47" s="23">
-        <v>3.0052345626920594</v>
+        <v>3.00523456269207</v>
       </c>
       <c r="X47" s="23">
         <v>2.3228598258154278</v>
@@ -4762,7 +4762,7 @@
         <v>0.56835434421690501</v>
       </c>
       <c r="AB47" s="23">
-        <v>2.7810153362821528</v>
+        <v>2.7810153362793621</v>
       </c>
       <c r="AC47" s="23">
         <v>0</v>
@@ -4893,16 +4893,16 @@
         <v>2.4224756786283179</v>
       </c>
       <c r="R50" s="30">
-        <v>0.23714033926575753</v>
+        <v>0.23714033926574749</v>
       </c>
       <c r="S50" s="30">
-        <v>4.3222758182187098E-5</v>
+        <v>4.3222758182186996E-5</v>
       </c>
       <c r="T50" s="30">
         <v>0.35043166497430805</v>
       </c>
       <c r="U50" s="30">
-        <v>1.8348604516300702</v>
+        <v>1.8348604516300802</v>
       </c>
       <c r="V50" s="30">
         <v>1.8354711181921599</v>
@@ -4920,7 +4920,7 @@
         <v>0</v>
       </c>
       <c r="AA50" s="23">
-        <v>0.56835434421687703</v>
+        <v>0.56835434421687603</v>
       </c>
       <c r="AB50" s="23">
         <v>2.7810153362800216</v>
@@ -6150,6 +6150,7 @@
     <mergeCell ref="W14:Y15"/>
     <mergeCell ref="T12:T13"/>
     <mergeCell ref="C12:C13"/>
+    <mergeCell ref="Z14:AB15"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="E12:E13"/>
@@ -6166,12 +6167,6 @@
     <mergeCell ref="J12:J13"/>
     <mergeCell ref="K12:K13"/>
     <mergeCell ref="P12:P13"/>
-    <mergeCell ref="Z14:AB15"/>
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="R14:R15"/>
-    <mergeCell ref="S14:S15"/>
-    <mergeCell ref="R12:R13"/>
-    <mergeCell ref="W12:W13"/>
     <mergeCell ref="X12:X13"/>
     <mergeCell ref="B14:P15"/>
     <mergeCell ref="Q14:Q15"/>
@@ -6180,6 +6175,11 @@
     <mergeCell ref="M12:M13"/>
     <mergeCell ref="G12:G13"/>
     <mergeCell ref="H12:H13"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="R14:R15"/>
+    <mergeCell ref="S14:S15"/>
+    <mergeCell ref="R12:R13"/>
+    <mergeCell ref="W12:W13"/>
     <mergeCell ref="B54:AB85"/>
     <mergeCell ref="AC14:AG15"/>
     <mergeCell ref="AC11:AG11"/>
@@ -6685,11 +6685,11 @@
       </c>
       <c r="E101" s="5">
         <f>'Mortgage Performance'!E20</f>
-        <v>106.345359890682</v>
+        <v>106.345359890683</v>
       </c>
       <c r="F101" s="5">
         <f>'Mortgage Performance'!F20</f>
-        <v>105.92764159773128</v>
+        <v>105.92764159773084</v>
       </c>
       <c r="G101" s="5">
         <f>'Mortgage Performance'!G20</f>
@@ -6697,7 +6697,7 @@
       </c>
       <c r="H101" s="5">
         <f>'Mortgage Performance'!H20</f>
-        <v>233.00000000000202</v>
+        <v>233.00000000000298</v>
       </c>
       <c r="I101" s="5">
         <f>'Mortgage Performance'!I20</f>
@@ -6741,7 +6741,7 @@
       </c>
       <c r="S101" s="5">
         <f>'Mortgage Performance'!S20</f>
-        <v>-4.81155115899069E-7</v>
+        <v>-4.8115511589904995E-7</v>
       </c>
       <c r="T101" s="5">
         <f>'Mortgage Performance'!T20</f>
@@ -6761,11 +6761,11 @@
       </c>
       <c r="X101" s="5">
         <f>'Mortgage Performance'!X20</f>
-        <v>1.5435635173333879</v>
+        <v>1.5435635173333304</v>
       </c>
       <c r="Y101" s="5">
         <f>'Mortgage Performance'!Y20</f>
-        <v>4.6550828287483983E-2</v>
+        <v>4.6550828205723524E-2</v>
       </c>
       <c r="Z101" s="5">
         <f>'Mortgage Performance'!Z20</f>
@@ -6888,11 +6888,11 @@
       </c>
       <c r="E102" s="5">
         <f>'Mortgage Performance'!E23</f>
-        <v>107.474817457303</v>
+        <v>107.47481745730299</v>
       </c>
       <c r="F102" s="5">
         <f>'Mortgage Performance'!F23</f>
-        <v>106.73643296828698</v>
+        <v>106.73643296828681</v>
       </c>
       <c r="G102" s="5">
         <f>'Mortgage Performance'!G23</f>
@@ -6900,11 +6900,11 @@
       </c>
       <c r="H102" s="5">
         <f>'Mortgage Performance'!H23</f>
-        <v>651.99999999999898</v>
+        <v>652</v>
       </c>
       <c r="I102" s="5">
         <f>'Mortgage Performance'!I23</f>
-        <v>6.6105328078421204</v>
+        <v>6.6105328078421195</v>
       </c>
       <c r="J102" s="5">
         <f>'Mortgage Performance'!J23</f>
@@ -6936,7 +6936,7 @@
       </c>
       <c r="Q102" s="5">
         <f>'Mortgage Performance'!Q23</f>
-        <v>2.3105720404628061</v>
+        <v>2.310572040462807</v>
       </c>
       <c r="R102" s="5">
         <f>'Mortgage Performance'!R23</f>
@@ -6948,7 +6948,7 @@
       </c>
       <c r="T102" s="5">
         <f>'Mortgage Performance'!T23</f>
-        <v>0.24346513580700602</v>
+        <v>0.24346513580700702</v>
       </c>
       <c r="U102" s="5">
         <f>'Mortgage Performance'!U23</f>
@@ -6964,11 +6964,11 @@
       </c>
       <c r="X102" s="5">
         <f>'Mortgage Performance'!X23</f>
-        <v>1.748558636161176</v>
+        <v>1.7485586361605225</v>
       </c>
       <c r="Y102" s="5">
         <f>'Mortgage Performance'!Y23</f>
-        <v>7.7082950332167069E-2</v>
+        <v>7.7082950319098134E-2</v>
       </c>
       <c r="Z102" s="5">
         <f>'Mortgage Performance'!Z23</f>
@@ -6976,11 +6976,11 @@
       </c>
       <c r="AA102" s="5">
         <f>'Mortgage Performance'!AA23</f>
-        <v>0.78708849764648092</v>
+        <v>0.78708849764648192</v>
       </c>
       <c r="AB102" s="5">
         <f>'Mortgage Performance'!AB23</f>
-        <v>3.5256566753917471</v>
+        <v>3.5256566753924821</v>
       </c>
       <c r="AC102" s="5">
         <f>'Mortgage Performance'!AC23</f>
@@ -7294,15 +7294,15 @@
       </c>
       <c r="E104" s="5">
         <f>'Mortgage Performance'!E29</f>
-        <v>107.055249398245</v>
+        <v>107.05122809509201</v>
       </c>
       <c r="F104" s="5">
         <f>'Mortgage Performance'!F29</f>
-        <v>106.49251519703684</v>
+        <v>106.48856254903137</v>
       </c>
       <c r="G104" s="5">
         <f>'Mortgage Performance'!G29</f>
-        <v>11708.8520459142</v>
+        <v>11708.417452266</v>
       </c>
       <c r="H104" s="5">
         <f>'Mortgage Performance'!H29</f>
@@ -7342,71 +7342,71 @@
       </c>
       <c r="Q104" s="5">
         <f>'Mortgage Performance'!Q29</f>
-        <v>2.1507833873331781</v>
+        <v>2.1517557896998478</v>
       </c>
       <c r="R104" s="5">
         <f>'Mortgage Performance'!R29</f>
-        <v>0.31667320973714741</v>
+        <v>0.31659148574801582</v>
       </c>
       <c r="S104" s="5">
         <f>'Mortgage Performance'!S29</f>
-        <v>-2.29875874673574E-2</v>
+        <v>-2.2946816672066096E-2</v>
       </c>
       <c r="T104" s="5">
         <f>'Mortgage Performance'!T29</f>
-        <v>0.19286882833305799</v>
+        <v>0.19335252489928798</v>
       </c>
       <c r="U104" s="5">
         <f>'Mortgage Performance'!U29</f>
-        <v>1.66422893673033</v>
+        <v>1.66475859572461</v>
       </c>
       <c r="V104" s="5">
         <f>'Mortgage Performance'!V29</f>
-        <v>1.76149279475737</v>
+        <v>1.7620073880955802</v>
       </c>
       <c r="W104" s="5">
         <f>'Mortgage Performance'!W29</f>
-        <v>2.5776699573115098</v>
+        <v>2.5772837071315799</v>
       </c>
       <c r="X104" s="5">
         <f>'Mortgage Performance'!X29</f>
-        <v>0.69873759945197511</v>
+        <v>0.69787539393452847</v>
       </c>
       <c r="Y104" s="5">
         <f>'Mortgage Performance'!Y29</f>
-        <v>-0.63612867502235138</v>
+        <v>-0.63613506533833108</v>
       </c>
       <c r="Z104" s="5">
         <f>'Mortgage Performance'!Z29</f>
-        <v>3.6855972130796402E-2</v>
+        <v>3.6830660105193397E-2</v>
       </c>
       <c r="AA104" s="5">
         <f>'Mortgage Performance'!AA29</f>
-        <v>0.67059436994491095</v>
+        <v>0.67042360456012096</v>
       </c>
       <c r="AB104" s="5">
         <f>'Mortgage Performance'!AB29</f>
-        <v>2.3378283326205285</v>
+        <v>2.3374201380437816</v>
       </c>
       <c r="AC104" s="5">
         <f>'Mortgage Performance'!AC29</f>
-        <v>38.605555766498803</v>
+        <v>38.605521686065799</v>
       </c>
       <c r="AD104" s="5">
         <f>'Mortgage Performance'!AD29</f>
-        <v>28.291022434467099</v>
+        <v>28.290757107430199</v>
       </c>
       <c r="AE104" s="5">
         <f>'Mortgage Performance'!AE29</f>
-        <v>0.137577893836344</v>
+        <v>0.13799283526741801</v>
       </c>
       <c r="AF104" s="5">
         <f>'Mortgage Performance'!AF29</f>
-        <v>0.25585304683656601</v>
+        <v>0.25638964649509599</v>
       </c>
       <c r="AG104" s="5">
         <f>'Mortgage Performance'!AG29</f>
-        <v>62.069840010755797</v>
+        <v>62.242585788219806</v>
       </c>
       <c r="AH104" s="5">
         <f>'Mortgage Performance'!AH29</f>
@@ -7553,7 +7553,7 @@
       </c>
       <c r="S105" s="5">
         <f>'Mortgage Performance'!S30</f>
-        <v>-6.0982073998885305E-6</v>
+        <v>-6.0982073998884806E-6</v>
       </c>
       <c r="T105" s="5">
         <f>'Mortgage Performance'!T30</f>
@@ -7601,7 +7601,7 @@
       </c>
       <c r="AE105" s="5">
         <f>'Mortgage Performance'!AE30</f>
-        <v>0.66205045589312295</v>
+        <v>0.66205045589312395</v>
       </c>
       <c r="AF105" s="5">
         <f>'Mortgage Performance'!AF30</f>
@@ -7700,7 +7700,7 @@
       </c>
       <c r="E106" s="5">
         <f>'Mortgage Performance'!E33</f>
-        <v>107.124781843131</v>
+        <v>107.124781843132</v>
       </c>
       <c r="F106" s="5">
         <f>'Mortgage Performance'!F33</f>
@@ -7788,7 +7788,7 @@
       </c>
       <c r="AA106" s="5">
         <f>'Mortgage Performance'!AA33</f>
-        <v>0.76853517451229703</v>
+        <v>0.76853517451229603</v>
       </c>
       <c r="AB106" s="5">
         <f>'Mortgage Performance'!AB33</f>
@@ -7951,11 +7951,11 @@
       </c>
       <c r="Q107" s="5">
         <f>'Mortgage Performance'!Q34</f>
-        <v>2.3087264225230042</v>
+        <v>2.308726422522994</v>
       </c>
       <c r="R107" s="5">
         <f>'Mortgage Performance'!R34</f>
-        <v>0.3535912037569523</v>
+        <v>0.35359120375694225</v>
       </c>
       <c r="S107" s="5">
         <f>'Mortgage Performance'!S34</f>
@@ -7979,11 +7979,11 @@
       </c>
       <c r="X107" s="5">
         <f>'Mortgage Performance'!X34</f>
-        <v>1.6699100839874561</v>
+        <v>1.6699100839879917</v>
       </c>
       <c r="Y107" s="5">
         <f>'Mortgage Performance'!Y34</f>
-        <v>7.3883118527900707E-2</v>
+        <v>7.3883118538612E-2</v>
       </c>
       <c r="Z107" s="5">
         <f>'Mortgage Performance'!Z34</f>
@@ -7991,11 +7991,11 @@
       </c>
       <c r="AA107" s="5">
         <f>'Mortgage Performance'!AA34</f>
-        <v>0.76853517451232101</v>
+        <v>0.76853517451232001</v>
       </c>
       <c r="AB107" s="5">
         <f>'Mortgage Performance'!AB34</f>
-        <v>3.4525717772215918</v>
+        <v>3.4525717772209892</v>
       </c>
       <c r="AC107" s="5">
         <f>'Mortgage Performance'!AC34</f>
@@ -8007,11 +8007,11 @@
       </c>
       <c r="AE107" s="5">
         <f>'Mortgage Performance'!AE34</f>
-        <v>0.23446355465121402</v>
+        <v>0.23446355465121502</v>
       </c>
       <c r="AF107" s="5">
         <f>'Mortgage Performance'!AF34</f>
-        <v>0.23446355465121402</v>
+        <v>0.23446355465121502</v>
       </c>
       <c r="AG107" s="5">
         <f>'Mortgage Performance'!AG34</f>
@@ -8309,11 +8309,11 @@
       </c>
       <c r="E109" s="5">
         <f>'Mortgage Performance'!E40</f>
-        <v>108.92903104905798</v>
+        <v>108.929031049058</v>
       </c>
       <c r="F109" s="5">
         <f>'Mortgage Performance'!F40</f>
-        <v>108.37533117715773</v>
+        <v>108.37533117715743</v>
       </c>
       <c r="G109" s="5">
         <f>'Mortgage Performance'!G40</f>
@@ -8321,11 +8321,11 @@
       </c>
       <c r="H109" s="5">
         <f>'Mortgage Performance'!H40</f>
-        <v>3531</v>
+        <v>3531.00000000001</v>
       </c>
       <c r="I109" s="5">
         <f>'Mortgage Performance'!I40</f>
-        <v>6.0582431140634601</v>
+        <v>6.0582431140634698</v>
       </c>
       <c r="J109" s="5">
         <f>'Mortgage Performance'!J40</f>
@@ -8365,7 +8365,7 @@
       </c>
       <c r="S109" s="5">
         <f>'Mortgage Performance'!S40</f>
-        <v>2.9750311648513699E-5</v>
+        <v>2.97503116485138E-5</v>
       </c>
       <c r="T109" s="5">
         <f>'Mortgage Performance'!T40</f>
@@ -8393,7 +8393,7 @@
       </c>
       <c r="Z109" s="5">
         <f>'Mortgage Performance'!Z40</f>
-        <v>2.1966598131652602E-5</v>
+        <v>2.19665981316525E-5</v>
       </c>
       <c r="AA109" s="5">
         <f>'Mortgage Performance'!AA40</f>
@@ -8401,23 +8401,23 @@
       </c>
       <c r="AB109" s="5">
         <f>'Mortgage Performance'!AB40</f>
-        <v>2.7128200079749081</v>
+        <v>2.712820007976215</v>
       </c>
       <c r="AC109" s="5">
         <f>'Mortgage Performance'!AC40</f>
-        <v>0.93122069052959489</v>
+        <v>0.93122069052959411</v>
       </c>
       <c r="AD109" s="5">
         <f>'Mortgage Performance'!AD40</f>
-        <v>0.69240951015576302</v>
+        <v>0.69240951015576502</v>
       </c>
       <c r="AE109" s="5">
         <f>'Mortgage Performance'!AE40</f>
-        <v>0.33825375247805106</v>
+        <v>0.33825375247805101</v>
       </c>
       <c r="AF109" s="5">
         <f>'Mortgage Performance'!AF40</f>
-        <v>0.33825375247805106</v>
+        <v>0.33825375247805101</v>
       </c>
       <c r="AG109" s="5">
         <f>'Mortgage Performance'!AG40</f>
@@ -8528,7 +8528,7 @@
       </c>
       <c r="I110" s="5">
         <f>'Mortgage Performance'!I43</f>
-        <v>12.406084269666801</v>
+        <v>12.4060842696667</v>
       </c>
       <c r="J110" s="5">
         <f>'Mortgage Performance'!J43</f>
@@ -8568,7 +8568,7 @@
       </c>
       <c r="S110" s="5">
         <f>'Mortgage Performance'!S43</f>
-        <v>-2.02951954954414E-5</v>
+        <v>-2.0295195495441302E-5</v>
       </c>
       <c r="T110" s="5">
         <f>'Mortgage Performance'!T43</f>
@@ -8588,11 +8588,11 @@
       </c>
       <c r="X110" s="5">
         <f>'Mortgage Performance'!X43</f>
-        <v>1.511038936319506</v>
+        <v>1.5110389363211443</v>
       </c>
       <c r="Y110" s="5">
         <f>'Mortgage Performance'!Y43</f>
-        <v>5.0675442773799484E-2</v>
+        <v>5.0675442806563789E-2</v>
       </c>
       <c r="Z110" s="5">
         <f>'Mortgage Performance'!Z43</f>
@@ -8600,11 +8600,11 @@
       </c>
       <c r="AA110" s="5">
         <f>'Mortgage Performance'!AA43</f>
-        <v>0.69838320838263301</v>
+        <v>0.69838320838263201</v>
       </c>
       <c r="AB110" s="5">
         <f>'Mortgage Performance'!AB43</f>
-        <v>1.511038936319506</v>
+        <v>1.5110389363211443</v>
       </c>
       <c r="AC110" s="5">
         <f>'Mortgage Performance'!AC43</f>
@@ -8616,7 +8616,7 @@
       </c>
       <c r="AE110" s="5">
         <f>'Mortgage Performance'!AE43</f>
-        <v>0.63221992819002704</v>
+        <v>0.63221992819002593</v>
       </c>
       <c r="AF110" s="5">
         <f>'Mortgage Performance'!AF43</f>
@@ -8731,7 +8731,7 @@
       </c>
       <c r="I111" s="5">
         <f>'Mortgage Performance'!I44</f>
-        <v>12.952397041976701</v>
+        <v>12.952397041976599</v>
       </c>
       <c r="J111" s="5">
         <f>'Mortgage Performance'!J44</f>
@@ -8787,7 +8787,7 @@
       </c>
       <c r="W111" s="5">
         <f>'Mortgage Performance'!W44</f>
-        <v>1.5630414487031601</v>
+        <v>1.5630414487031701</v>
       </c>
       <c r="X111" s="5">
         <f>'Mortgage Performance'!X44</f>
@@ -8918,7 +8918,7 @@
       </c>
       <c r="E112" s="5">
         <f>'Mortgage Performance'!E47</f>
-        <v>101.171652730285</v>
+        <v>101.171652730286</v>
       </c>
       <c r="F112" s="5">
         <f>'Mortgage Performance'!F47</f>
@@ -8966,11 +8966,11 @@
       </c>
       <c r="Q112" s="5">
         <f>'Mortgage Performance'!Q47</f>
-        <v>2.4224756786283188</v>
+        <v>2.4224756786283179</v>
       </c>
       <c r="R112" s="5">
         <f>'Mortgage Performance'!R47</f>
-        <v>0.23714033926575753</v>
+        <v>0.23714033926574749</v>
       </c>
       <c r="S112" s="5">
         <f>'Mortgage Performance'!S47</f>
@@ -8978,11 +8978,11 @@
       </c>
       <c r="T112" s="5">
         <f>'Mortgage Performance'!T47</f>
-        <v>0.35043166497430905</v>
+        <v>0.350431664974308</v>
       </c>
       <c r="U112" s="5">
         <f>'Mortgage Performance'!U47</f>
-        <v>1.8348604516300702</v>
+        <v>1.8348604516300802</v>
       </c>
       <c r="V112" s="5">
         <f>'Mortgage Performance'!V47</f>
@@ -8990,7 +8990,7 @@
       </c>
       <c r="W112" s="5">
         <f>'Mortgage Performance'!W47</f>
-        <v>3.0052345626920594</v>
+        <v>3.00523456269207</v>
       </c>
       <c r="X112" s="5">
         <f>'Mortgage Performance'!X47</f>
@@ -9010,7 +9010,7 @@
       </c>
       <c r="AB112" s="5">
         <f>'Mortgage Performance'!AB47</f>
-        <v>2.7810153362821528</v>
+        <v>2.7810153362793621</v>
       </c>
       <c r="AC112" s="5">
         <f>'Mortgage Performance'!AC47</f>
@@ -9173,11 +9173,11 @@
       </c>
       <c r="R113" s="5">
         <f>'Mortgage Performance'!R50</f>
-        <v>0.23714033926575753</v>
+        <v>0.23714033926574749</v>
       </c>
       <c r="S113" s="5">
         <f>'Mortgage Performance'!S50</f>
-        <v>4.3222758182187098E-5</v>
+        <v>4.3222758182186996E-5</v>
       </c>
       <c r="T113" s="5">
         <f>'Mortgage Performance'!T50</f>
@@ -9185,7 +9185,7 @@
       </c>
       <c r="U113" s="5">
         <f>'Mortgage Performance'!U50</f>
-        <v>1.8348604516300702</v>
+        <v>1.8348604516300802</v>
       </c>
       <c r="V113" s="5">
         <f>'Mortgage Performance'!V50</f>
@@ -9209,7 +9209,7 @@
       </c>
       <c r="AA113" s="5">
         <f>'Mortgage Performance'!AA50</f>
-        <v>0.56835434421687703</v>
+        <v>0.56835434421687603</v>
       </c>
       <c r="AB113" s="5">
         <f>'Mortgage Performance'!AB50</f>

--- a/lib/report/benchmark_report/web14/exl/202006/jsliu__bank_test_&_city_(HF)(202006)_Loan_Portfolio_Analytics.xlsx
+++ b/lib/report/benchmark_report/web14/exl/202006/jsliu__bank_test_&_city_(HF)(202006)_Loan_Portfolio_Analytics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\THC\R0702\Web ReportTemplates\2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B2A66BF-7F1B-41A4-BCEF-462D122048B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F526923A-FEC0-4C6E-BEB7-BB9ECE35BCBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="18000" windowHeight="9360" tabRatio="853" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" tabRatio="853" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mortgage Performance" sheetId="1" r:id="rId1"/>
@@ -207,7 +207,7 @@
     <t>Portfolio Name: Loans and lease financing receivables          Cycle: June, 2020           Evaluation Date: June 30, 2020</t>
   </si>
   <si>
-    <t>Printed on: 11/12/2020 4:48:23AM</t>
+    <t>Printed on: 12/11/2020 4:51:57AM</t>
   </si>
   <si>
     <t>Footnotes:_x000D_
@@ -349,10 +349,10 @@
     <t>Auto Loan</t>
   </si>
   <si>
-    <t>ConsRLoan_FLT</t>
+    <t>Consumer_Floating</t>
   </si>
   <si>
-    <t>ConsRLoan_FIX</t>
+    <t>Consumer_Fixed</t>
   </si>
 </sst>
 </file>
@@ -1051,7 +1051,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000000-0C5D-4C96-BA78-F7B698A35FD8}"/>
+                <c16:uniqueId val="{00000000-9020-4849-A966-02B649D0F85E}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1065,7 +1065,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-0C5D-4C96-BA78-F7B698A35FD8}"/>
+                <c16:uniqueId val="{00000001-9020-4849-A966-02B649D0F85E}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1079,7 +1079,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000002-0C5D-4C96-BA78-F7B698A35FD8}"/>
+                <c16:uniqueId val="{00000002-9020-4849-A966-02B649D0F85E}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1093,7 +1093,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-0C5D-4C96-BA78-F7B698A35FD8}"/>
+                <c16:uniqueId val="{00000003-9020-4849-A966-02B649D0F85E}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1131,7 +1131,7 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-0C5D-4C96-BA78-F7B698A35FD8}"/>
+                  <c16:uniqueId val="{00000002-9020-4849-A966-02B649D0F85E}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1210,10 +1210,10 @@
                   <c:v>Auto Loan</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>ConsRLoan_FLT</c:v>
+                  <c:v>Consumer_Floating</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>ConsRLoan_FIX</c:v>
+                  <c:v>Consumer_Fixed</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1268,7 +1268,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-0C5D-4C96-BA78-F7B698A35FD8}"/>
+              <c16:uniqueId val="{00000004-9020-4849-A966-02B649D0F85E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1371,7 +1371,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000000-6A8E-4291-ADD5-0F69BFAFB4C3}"/>
+                <c16:uniqueId val="{00000000-28C1-43FE-BAF4-7FC9867C769C}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1385,7 +1385,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-6A8E-4291-ADD5-0F69BFAFB4C3}"/>
+                <c16:uniqueId val="{00000001-28C1-43FE-BAF4-7FC9867C769C}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1399,7 +1399,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000002-6A8E-4291-ADD5-0F69BFAFB4C3}"/>
+                <c16:uniqueId val="{00000002-28C1-43FE-BAF4-7FC9867C769C}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1413,7 +1413,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-6A8E-4291-ADD5-0F69BFAFB4C3}"/>
+                <c16:uniqueId val="{00000003-28C1-43FE-BAF4-7FC9867C769C}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1479,7 +1479,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-6A8E-4291-ADD5-0F69BFAFB4C3}"/>
+              <c16:uniqueId val="{00000004-28C1-43FE-BAF4-7FC9867C769C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2625,15 +2625,15 @@
       <c r="D10" s="61"/>
       <c r="E10" s="38">
         <f>C10/100-U17+Q17</f>
-        <v>1.6347129685324044</v>
+        <v>1.6347129685324024</v>
       </c>
       <c r="F10" s="39">
         <f>(1-(C10/10000-U17/100)*AB17)*E17</f>
-        <v>109.64853611809902</v>
+        <v>109.64853611809767</v>
       </c>
       <c r="G10" s="40">
         <f>(1-(C10/10000-U17/100)*AB17)*F17</f>
-        <v>109.10206622825295</v>
+        <v>109.10206622825145</v>
       </c>
       <c r="N10" s="12"/>
       <c r="O10" s="12"/>
@@ -2955,23 +2955,23 @@
       </c>
       <c r="E17" s="16">
         <f>IF(SUM(DATATEMP!H101:H113) = 0,"",SUMPRODUCT(DATATEMP!E101:E113,DATATEMP!H101:H113)/SUM(DATATEMP!H101:H113))</f>
-        <v>107.40026654894285</v>
+        <v>107.40026654894295</v>
       </c>
       <c r="F17" s="16">
         <f>IF(SUM(DATATEMP!H101:H113) = 0,"",SUMPRODUCT(DATATEMP!F101:F113,DATATEMP!H101:H113)/SUM(DATATEMP!H101:H113))</f>
-        <v>106.86500165705935</v>
+        <v>106.8650016570593</v>
       </c>
       <c r="G17" s="17">
         <f>SUM(DATATEMP!G101:G113)</f>
-        <v>26241.769806907516</v>
+        <v>26241.769806907501</v>
       </c>
       <c r="H17" s="17">
         <f>SUM(DATATEMP!H101:H113)</f>
-        <v>24556.000000000018</v>
+        <v>24556.000000000022</v>
       </c>
       <c r="I17" s="18">
         <f>IF(SUM(DATATEMP!H101:H113) = 0,"",SUMPRODUCT(DATATEMP!I101:I113,DATATEMP!H101:H113)/SUM(DATATEMP!H101:H113))</f>
-        <v>6.8199376557051696</v>
+        <v>6.8199376557051687</v>
       </c>
       <c r="J17" s="19"/>
       <c r="K17" s="19"/>
@@ -2989,7 +2989,7 @@
       </c>
       <c r="O17" s="17">
         <f>IF(SUM(DATATEMP!H101:H113) = 0,"",SUMPRODUCT(DATATEMP!O101:O113,DATATEMP!H101:H113)/SUM(DATATEMP!H101:H113))</f>
-        <v>719.99999999999977</v>
+        <v>720</v>
       </c>
       <c r="P17" s="17">
         <f>IF(SUM(DATATEMP!H101:H113) = 0,"",SUMPRODUCT(DATATEMP!P101:P113,DATATEMP!H101:H113)/SUM(DATATEMP!H101:H113))</f>
@@ -3001,63 +3001,63 @@
       </c>
       <c r="R17" s="21">
         <f>IF(SUM(DATATEMP!H101:H113) = 0,"",SUMPRODUCT(DATATEMP!R101:R113,DATATEMP!H101:H113)/SUM(DATATEMP!H101:H113))</f>
-        <v>0.27766745703421841</v>
+        <v>0.27766745703421702</v>
       </c>
       <c r="S17" s="21">
         <f>IF(SUM(DATATEMP!H101:H113) = 0,"",SUMPRODUCT(DATATEMP!S101:S113,DATATEMP!H101:H113)/SUM(DATATEMP!H101:H113))</f>
-        <v>-1.026297409724688E-2</v>
+        <v>-1.0262974097246863E-2</v>
       </c>
       <c r="T17" s="21">
         <f>IF(SUM(DATATEMP!H101:H113) = 0,"",SUMPRODUCT(DATATEMP!T101:T113,DATATEMP!H101:H113)/SUM(DATATEMP!H101:H113))</f>
-        <v>0.36730848559543244</v>
+        <v>0.36730848559543228</v>
       </c>
       <c r="U17" s="21">
         <f>IF(SUM(DATATEMP!H101:H113) = 0,"",SUMPRODUCT(DATATEMP!U101:U113,DATATEMP!H101:H113)/SUM(DATATEMP!H101:H113))</f>
-        <v>1.8612886246547342</v>
+        <v>1.8612886246547362</v>
       </c>
       <c r="V17" s="21">
         <f>IF(SUM(DATATEMP!H101:H113) = 0,"",SUMPRODUCT(DATATEMP!V101:V113,DATATEMP!H101:H113)/SUM(DATATEMP!H101:H113))</f>
-        <v>1.9135701391749791</v>
+        <v>1.9135701391749775</v>
       </c>
       <c r="W17" s="16">
         <f>IF(SUM(DATATEMP!H101:H113) = 0,"",SUMPRODUCT(DATATEMP!W101:W113,DATATEMP!H101:H113)/SUM(DATATEMP!H101:H113))</f>
-        <v>2.7090557704032774</v>
+        <v>2.7090557704032778</v>
       </c>
       <c r="X17" s="16">
         <f>IF(SUM(DATATEMP!H101:H113) = 0,"",SUMPRODUCT(DATATEMP!X101:X113,DATATEMP!H101:H113)/SUM(DATATEMP!H101:H113))</f>
-        <v>1.3826462036115919</v>
+        <v>1.3826462036121485</v>
       </c>
       <c r="Y17" s="16">
         <f>IF(SUM(DATATEMP!H101:H113) = 0,"",SUMPRODUCT(DATATEMP!Y101:Y113,DATATEMP!H101:H113)/SUM(DATATEMP!H101:H113))</f>
-        <v>-0.23734614568255205</v>
+        <v>-0.23734614568116119</v>
       </c>
       <c r="Z17" s="22">
         <f>IF(SUM(DATATEMP!H101:H113) = 0,"",SUMPRODUCT(DATATEMP!Z101:Z113,DATATEMP!H101:H113)/SUM(DATATEMP!H101:H113))</f>
-        <v>2.0736142578127364E-2</v>
+        <v>2.0736142578127361E-2</v>
       </c>
       <c r="AA17" s="16">
         <f>IF(SUM(DATATEMP!H101:H113) = 0,"",SUMPRODUCT(DATATEMP!AA101:AA113,DATATEMP!H101:H113)/SUM(DATATEMP!H101:H113))</f>
-        <v>0.69008791731014107</v>
+        <v>0.69008791731014096</v>
       </c>
       <c r="AB17" s="16">
         <f>IF(SUM(DATATEMP!H101:H113) = 0,"",SUMPRODUCT(DATATEMP!AB101:AB113,DATATEMP!H101:H113)/SUM(DATATEMP!H101:H113))</f>
-        <v>2.4304926477050999</v>
+        <v>2.4304926477035362</v>
       </c>
       <c r="AC17" s="16">
         <f>IF(SUM(DATATEMP!H101:H113) = 0,"",SUMPRODUCT(DATATEMP!AC101:AC113,DATATEMP!H101:H113)/SUM(DATATEMP!H101:H113))</f>
-        <v>19.803893789934666</v>
+        <v>19.803893789934648</v>
       </c>
       <c r="AD17" s="16">
         <f>IF(SUM(DATATEMP!H101:H113) = 0,"",SUMPRODUCT(DATATEMP!AD101:AD113,DATATEMP!H101:H113)/SUM(DATATEMP!H101:H113))</f>
-        <v>15.150947967929246</v>
+        <v>15.150947967929245</v>
       </c>
       <c r="AE17" s="16">
         <f>IF(SUM(DATATEMP!H101:H113) = 0,"",SUMPRODUCT(DATATEMP!AE101:AE113,DATATEMP!H101:H113)/SUM(DATATEMP!H101:H113))</f>
-        <v>0.34525512722685786</v>
+        <v>0.34525512722685764</v>
       </c>
       <c r="AF17" s="16">
         <f>IF(SUM(DATATEMP!H101:H113) = 0,"",SUMPRODUCT(DATATEMP!AF101:AF113,DATATEMP!H101:H113)/SUM(DATATEMP!H101:H113))</f>
-        <v>0.40268702632790421</v>
+        <v>0.40268702632790432</v>
       </c>
       <c r="AG17" s="17">
         <f>SUM(DATATEMP!AG101:AG113)</f>
@@ -3627,19 +3627,19 @@
       <c r="C29" s="25"/>
       <c r="D29" s="25"/>
       <c r="E29" s="23">
-        <v>107.05122809509201</v>
+        <v>107.05122809509221</v>
       </c>
       <c r="F29" s="23">
-        <v>106.48856254903137</v>
+        <v>106.4885625490312</v>
       </c>
       <c r="G29" s="26">
-        <v>11708.417452266</v>
+        <v>11708.417452265985</v>
       </c>
       <c r="H29" s="26">
-        <v>10995</v>
+        <v>10995.000000000004</v>
       </c>
       <c r="I29" s="27">
-        <v>6.4465745204699711</v>
+        <v>6.4465745204699729</v>
       </c>
       <c r="J29" s="28"/>
       <c r="K29" s="28"/>
@@ -3660,49 +3660,49 @@
         <v>2.1517557896998478</v>
       </c>
       <c r="R29" s="30">
-        <v>0.31659148574801582</v>
+        <v>0.31659148574801266</v>
       </c>
       <c r="S29" s="30">
-        <v>-2.2946816672066096E-2</v>
+        <v>-2.2946816672066054E-2</v>
       </c>
       <c r="T29" s="30">
-        <v>0.19335252489928798</v>
+        <v>0.19335252489928764</v>
       </c>
       <c r="U29" s="30">
-        <v>1.66475859572461</v>
+        <v>1.6647585957246136</v>
       </c>
       <c r="V29" s="30">
-        <v>1.7620073880955802</v>
+        <v>1.7620073880955767</v>
       </c>
       <c r="W29" s="23">
-        <v>2.5772837071315799</v>
+        <v>2.5772837071315795</v>
       </c>
       <c r="X29" s="23">
-        <v>0.69787539393452847</v>
+        <v>0.69787539393577214</v>
       </c>
       <c r="Y29" s="23">
-        <v>-0.63613506533833108</v>
+        <v>-0.63613506533522468</v>
       </c>
       <c r="Z29" s="31">
-        <v>3.6830660105193397E-2</v>
+        <v>3.683066010519339E-2</v>
       </c>
       <c r="AA29" s="23">
-        <v>0.67042360456012096</v>
+        <v>0.67042360456012073</v>
       </c>
       <c r="AB29" s="23">
-        <v>2.3374201380437816</v>
+        <v>2.3374201380402888</v>
       </c>
       <c r="AC29" s="23">
-        <v>38.605521686065799</v>
+        <v>38.60552168606575</v>
       </c>
       <c r="AD29" s="23">
-        <v>28.290757107430199</v>
+        <v>28.290757107430192</v>
       </c>
       <c r="AE29" s="23">
-        <v>0.13799283526741801</v>
+        <v>0.13799283526741757</v>
       </c>
       <c r="AF29" s="23">
-        <v>0.25638964649509599</v>
+        <v>0.25638964649509616</v>
       </c>
       <c r="AG29" s="26">
         <v>62.242585788219806</v>
@@ -7294,23 +7294,23 @@
       </c>
       <c r="E104" s="5">
         <f>'Mortgage Performance'!E29</f>
-        <v>107.05122809509201</v>
+        <v>107.05122809509221</v>
       </c>
       <c r="F104" s="5">
         <f>'Mortgage Performance'!F29</f>
-        <v>106.48856254903137</v>
+        <v>106.4885625490312</v>
       </c>
       <c r="G104" s="5">
         <f>'Mortgage Performance'!G29</f>
-        <v>11708.417452266</v>
+        <v>11708.417452265985</v>
       </c>
       <c r="H104" s="5">
         <f>'Mortgage Performance'!H29</f>
-        <v>10995</v>
+        <v>10995.000000000004</v>
       </c>
       <c r="I104" s="5">
         <f>'Mortgage Performance'!I29</f>
-        <v>6.4465745204699711</v>
+        <v>6.4465745204699729</v>
       </c>
       <c r="J104" s="5">
         <f>'Mortgage Performance'!J29</f>
@@ -7346,63 +7346,63 @@
       </c>
       <c r="R104" s="5">
         <f>'Mortgage Performance'!R29</f>
-        <v>0.31659148574801582</v>
+        <v>0.31659148574801266</v>
       </c>
       <c r="S104" s="5">
         <f>'Mortgage Performance'!S29</f>
-        <v>-2.2946816672066096E-2</v>
+        <v>-2.2946816672066054E-2</v>
       </c>
       <c r="T104" s="5">
         <f>'Mortgage Performance'!T29</f>
-        <v>0.19335252489928798</v>
+        <v>0.19335252489928764</v>
       </c>
       <c r="U104" s="5">
         <f>'Mortgage Performance'!U29</f>
-        <v>1.66475859572461</v>
+        <v>1.6647585957246136</v>
       </c>
       <c r="V104" s="5">
         <f>'Mortgage Performance'!V29</f>
-        <v>1.7620073880955802</v>
+        <v>1.7620073880955767</v>
       </c>
       <c r="W104" s="5">
         <f>'Mortgage Performance'!W29</f>
-        <v>2.5772837071315799</v>
+        <v>2.5772837071315795</v>
       </c>
       <c r="X104" s="5">
         <f>'Mortgage Performance'!X29</f>
-        <v>0.69787539393452847</v>
+        <v>0.69787539393577214</v>
       </c>
       <c r="Y104" s="5">
         <f>'Mortgage Performance'!Y29</f>
-        <v>-0.63613506533833108</v>
+        <v>-0.63613506533522468</v>
       </c>
       <c r="Z104" s="5">
         <f>'Mortgage Performance'!Z29</f>
-        <v>3.6830660105193397E-2</v>
+        <v>3.683066010519339E-2</v>
       </c>
       <c r="AA104" s="5">
         <f>'Mortgage Performance'!AA29</f>
-        <v>0.67042360456012096</v>
+        <v>0.67042360456012073</v>
       </c>
       <c r="AB104" s="5">
         <f>'Mortgage Performance'!AB29</f>
-        <v>2.3374201380437816</v>
+        <v>2.3374201380402888</v>
       </c>
       <c r="AC104" s="5">
         <f>'Mortgage Performance'!AC29</f>
-        <v>38.605521686065799</v>
+        <v>38.60552168606575</v>
       </c>
       <c r="AD104" s="5">
         <f>'Mortgage Performance'!AD29</f>
-        <v>28.290757107430199</v>
+        <v>28.290757107430192</v>
       </c>
       <c r="AE104" s="5">
         <f>'Mortgage Performance'!AE29</f>
-        <v>0.13799283526741801</v>
+        <v>0.13799283526741757</v>
       </c>
       <c r="AF104" s="5">
         <f>'Mortgage Performance'!AF29</f>
-        <v>0.25638964649509599</v>
+        <v>0.25638964649509616</v>
       </c>
       <c r="AG104" s="5">
         <f>'Mortgage Performance'!AG29</f>
